--- a/Dataset/Portieri.xlsx
+++ b/Dataset/Portieri.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kecco\Documents\GitHub\ICON_Project\Dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UniDispense\ICON\ICON_Project\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E43CE09-39A9-4408-96CE-45F1851785E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14794772-FD6D-4C23-BA40-E0ACC06C0D02}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{BDB474DA-5ACF-4EFA-B6B9-94B7B8C58F21}"/>
+    <workbookView xWindow="20370" yWindow="-7305" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{BDB474DA-5ACF-4EFA-B6B9-94B7B8C58F21}"/>
   </bookViews>
   <sheets>
     <sheet name="26" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="74">
   <si>
     <t>ID</t>
   </si>
@@ -253,94 +253,31 @@
     <t>Nícolas Andrade\Nicolas-Andrade</t>
   </si>
   <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>28.0</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>26.0</t>
-  </si>
-  <si>
     <t>Angelo da Costa Júnior\Angelo-da-Costa-Junior</t>
   </si>
   <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>27.0</t>
-  </si>
-  <si>
     <t>Bartłomiej Drągowski\Bartlomiej-Dragowski</t>
   </si>
   <si>
-    <t>27.5</t>
-  </si>
-  <si>
-    <t>15.7</t>
-  </si>
-  <si>
     <t>Samir Handanović\Samir-Handanovic</t>
   </si>
   <si>
     <t>Pau López\Pau-Lopez</t>
   </si>
   <si>
-    <t>17.2</t>
-  </si>
-  <si>
-    <t>2.7</t>
-  </si>
-  <si>
-    <t>12.0</t>
-  </si>
-  <si>
     <t>Vanja Milinković-Savić\Vanja-Milinkovic-Savic</t>
   </si>
   <si>
-    <t>10.8</t>
-  </si>
-  <si>
     <t>Lorenzo Montipò\Lorenzo-Montipo</t>
   </si>
   <si>
-    <t>15.0</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>24.0</t>
-  </si>
-  <si>
-    <t>22.0</t>
-  </si>
-  <si>
-    <t>21.0</t>
-  </si>
-  <si>
-    <t>25.0</t>
-  </si>
-  <si>
     <t>Łukasz Skorupski\Lukasz-Skorupski</t>
   </si>
   <si>
-    <t>12.3</t>
-  </si>
-  <si>
     <t>Wojciech Szczęsny\Wojciech-Szczesny</t>
   </si>
   <si>
     <t>Ciprian Tătărușanu\Ciprian-Tatarusanu</t>
-  </si>
-  <si>
-    <t>4.7</t>
   </si>
 </sst>
 </file>
@@ -384,16 +321,7 @@
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="46">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -482,6 +410,54 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
@@ -525,63 +501,118 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F26469FE-DFF4-4907-A9FC-DA2AE4C44FBB}" name="Worksheet" displayName="Worksheet" ref="A1:R36">
-  <autoFilter ref="A1:R36" xr:uid="{5F7D3466-6B70-4512-BE21-42859B7FD162}"/>
+  <autoFilter ref="A1:R36" xr:uid="{5F7D3466-6B70-4512-BE21-42859B7FD162}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+    <filterColumn colId="10" hiddenButton="1"/>
+    <filterColumn colId="11" hiddenButton="1"/>
+    <filterColumn colId="12" hiddenButton="1"/>
+    <filterColumn colId="13" hiddenButton="1"/>
+    <filterColumn colId="14" hiddenButton="1"/>
+    <filterColumn colId="15" hiddenButton="1"/>
+    <filterColumn colId="16" hiddenButton="1"/>
+    <filterColumn colId="17" hiddenButton="1"/>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R36">
     <sortCondition ref="A1:A36"/>
   </sortState>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{1230417B-7D52-44A7-8F29-462A684E4B2E}" name="ID" totalsRowLabel="Totale"/>
-    <tableColumn id="2" xr3:uid="{5CEF2297-69FE-421F-A7D2-B07C55063AE4}" name="Nome_Cognome" dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{2841AA45-A270-4455-B88D-D8115413D209}" name="Mf" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{C34145F9-2FF8-41E6-9F23-93F9A7AFD2F1}" name="Ruolo" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{0CE5B215-04EC-4C67-8971-EB5439805B0F}" name="Squadra" dataDxfId="29"/>
-    <tableColumn id="8" xr3:uid="{F01B15DF-2DF9-47CC-B8FC-5036F18FE682}" name="Partite_giocate" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{5D2D9D87-6B87-411A-A409-6566CB9F5C17}" name="Titolare" dataDxfId="27"/>
-    <tableColumn id="10" xr3:uid="{5916E863-847F-41AB-AE92-1745EA1C1C06}" name="Min_giocati" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{82BFCAA2-2D17-4050-BAF7-6E810A6CEC43}" name="Min_90" dataDxfId="25"/>
-    <tableColumn id="12" xr3:uid="{5F0D13B6-21D8-4A23-91FC-D3B4B69AF5BA}" name="Reti_sub" dataDxfId="24"/>
-    <tableColumn id="13" xr3:uid="{A1F14E9B-356B-46BD-821B-A00E293E9888}" name="Reti_sub_90" dataDxfId="23"/>
-    <tableColumn id="14" xr3:uid="{A5249FCE-52B9-4A6E-9555-BAFDABD68141}" name="Tiri_sub" dataDxfId="22"/>
-    <tableColumn id="15" xr3:uid="{DA534A5C-C816-48A5-8E18-520DB691A69A}" name="Parate" dataDxfId="21"/>
-    <tableColumn id="20" xr3:uid="{248CFD0F-F90C-44CA-B303-D979DC3F6CD9}" name="Porta_inviolata" dataDxfId="20"/>
-    <tableColumn id="22" xr3:uid="{4682E2C2-03E0-4069-BE5A-413D0EF3722F}" name="Rig_tot" dataDxfId="19"/>
-    <tableColumn id="23" xr3:uid="{84FF6B19-F1B4-4361-BC7C-8E999096D745}" name="Rig_concessi" dataDxfId="18"/>
-    <tableColumn id="24" xr3:uid="{3586F933-7A4A-41FA-9025-6E7E1693C60D}" name="Rig_salvati" dataDxfId="17"/>
-    <tableColumn id="25" xr3:uid="{F4F09B82-6DA1-4C89-9405-5F50C6B933BC}" name="Rig_mancati" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{5CEF2297-69FE-421F-A7D2-B07C55063AE4}" name="Nome_Cognome" dataDxfId="45"/>
+    <tableColumn id="7" xr3:uid="{2841AA45-A270-4455-B88D-D8115413D209}" name="Mf" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{C34145F9-2FF8-41E6-9F23-93F9A7AFD2F1}" name="Ruolo" dataDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{0CE5B215-04EC-4C67-8971-EB5439805B0F}" name="Squadra" dataDxfId="42"/>
+    <tableColumn id="8" xr3:uid="{F01B15DF-2DF9-47CC-B8FC-5036F18FE682}" name="Partite_giocate" dataDxfId="41"/>
+    <tableColumn id="9" xr3:uid="{5D2D9D87-6B87-411A-A409-6566CB9F5C17}" name="Titolare" dataDxfId="40"/>
+    <tableColumn id="10" xr3:uid="{5916E863-847F-41AB-AE92-1745EA1C1C06}" name="Min_giocati" dataDxfId="39"/>
+    <tableColumn id="11" xr3:uid="{82BFCAA2-2D17-4050-BAF7-6E810A6CEC43}" name="Min_90" dataDxfId="38"/>
+    <tableColumn id="12" xr3:uid="{5F0D13B6-21D8-4A23-91FC-D3B4B69AF5BA}" name="Reti_sub" dataDxfId="37"/>
+    <tableColumn id="13" xr3:uid="{A1F14E9B-356B-46BD-821B-A00E293E9888}" name="Reti_sub_90" dataDxfId="36"/>
+    <tableColumn id="14" xr3:uid="{A5249FCE-52B9-4A6E-9555-BAFDABD68141}" name="Tiri_sub" dataDxfId="35"/>
+    <tableColumn id="15" xr3:uid="{DA534A5C-C816-48A5-8E18-520DB691A69A}" name="Parate" dataDxfId="34"/>
+    <tableColumn id="20" xr3:uid="{248CFD0F-F90C-44CA-B303-D979DC3F6CD9}" name="Porta_inviolata" dataDxfId="33"/>
+    <tableColumn id="22" xr3:uid="{4682E2C2-03E0-4069-BE5A-413D0EF3722F}" name="Rig_tot" dataDxfId="32"/>
+    <tableColumn id="23" xr3:uid="{84FF6B19-F1B4-4361-BC7C-8E999096D745}" name="Rig_concessi" dataDxfId="31"/>
+    <tableColumn id="24" xr3:uid="{3586F933-7A4A-41FA-9025-6E7E1693C60D}" name="Rig_salvati" dataDxfId="30"/>
+    <tableColumn id="25" xr3:uid="{F4F09B82-6DA1-4C89-9405-5F50C6B933BC}" name="Rig_mancati" dataDxfId="29"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A8B84C7E-5C2B-4DDB-8B58-3864DF6422B0}" name="Portieri__2" displayName="Portieri__2" ref="A1:Q36" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:Q36" xr:uid="{D494C94D-D0BC-4ADE-BB98-43A09D7106F9}"/>
+  <autoFilter ref="A1:Q36" xr:uid="{D494C94D-D0BC-4ADE-BB98-43A09D7106F9}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+    <filterColumn colId="10" hiddenButton="1"/>
+    <filterColumn colId="11" hiddenButton="1"/>
+    <filterColumn colId="12" hiddenButton="1"/>
+    <filterColumn colId="13" hiddenButton="1"/>
+    <filterColumn colId="14" hiddenButton="1"/>
+    <filterColumn colId="15" hiddenButton="1"/>
+    <filterColumn colId="16" hiddenButton="1"/>
+  </autoFilter>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{2B3DD0A5-3CF5-4E05-A835-86A163AAC168}" uniqueName="1" name="ID" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{66D82A04-D86E-4E8F-A4C1-92AB0B7AB570}" uniqueName="2" name="Nome_Cognome" queryTableFieldId="2" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{FD9F4197-0708-4C30-A18E-C4254C04A92B}" uniqueName="3" name="Ruolo" queryTableFieldId="3" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{91F42C2F-6FE9-46FD-9E0D-A10F37B6E7EB}" uniqueName="4" name="Squadra" queryTableFieldId="4" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{119E7E32-7B23-4575-984D-2691364792B4}" uniqueName="5" name="Partite_giocate" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{24DC5E5B-196B-4181-8B14-2B65BA039C7C}" uniqueName="6" name="Titolare" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{9CA7A86C-0D22-4FDB-B489-BA3F349E3054}" uniqueName="7" name="Min_giocati" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{5BAA6B3B-DB85-4AA2-8BD7-C7933A9BDC48}" uniqueName="8" name="Min_90" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{C116BB72-6EA7-4A5B-8409-C62249EAD314}" uniqueName="9" name="Reti_sub" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{0A8A30E8-B690-41E4-9987-7F972ECCA0D9}" uniqueName="10" name="Reti_sub_90" queryTableFieldId="10"/>
-    <tableColumn id="11" xr3:uid="{13383F85-4DE6-4D5F-A323-79C42D1F9286}" uniqueName="11" name="Tiri_sub" queryTableFieldId="11"/>
-    <tableColumn id="12" xr3:uid="{04E73F19-FAAF-4610-9284-E997203F5B5A}" uniqueName="12" name="Parate" queryTableFieldId="12"/>
-    <tableColumn id="13" xr3:uid="{0257DF28-6D21-4197-8F0E-D08FAED5C126}" uniqueName="13" name="Porta_inviolata" queryTableFieldId="13"/>
-    <tableColumn id="14" xr3:uid="{64B3128A-F2BA-426E-83D8-A2DD2D8A4C1C}" uniqueName="14" name="Rig_tot" queryTableFieldId="14"/>
-    <tableColumn id="15" xr3:uid="{487A0F8C-3358-4639-ACFC-5090038A5FD1}" uniqueName="15" name="Rig_concessi" queryTableFieldId="15"/>
-    <tableColumn id="16" xr3:uid="{960C59B0-55FC-47C3-9E36-1C8B2FA14B78}" uniqueName="16" name="Rig_salvati" queryTableFieldId="16"/>
-    <tableColumn id="17" xr3:uid="{63B2330A-1FFC-4FCD-9AD9-F3D34610E719}" uniqueName="17" name="Rig_mancati" queryTableFieldId="17"/>
+    <tableColumn id="2" xr3:uid="{66D82A04-D86E-4E8F-A4C1-92AB0B7AB570}" uniqueName="2" name="Nome_Cognome" queryTableFieldId="2" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{FD9F4197-0708-4C30-A18E-C4254C04A92B}" uniqueName="3" name="Ruolo" queryTableFieldId="3" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{91F42C2F-6FE9-46FD-9E0D-A10F37B6E7EB}" uniqueName="4" name="Squadra" queryTableFieldId="4" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{119E7E32-7B23-4575-984D-2691364792B4}" uniqueName="5" name="Partite_giocate" queryTableFieldId="5" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{24DC5E5B-196B-4181-8B14-2B65BA039C7C}" uniqueName="6" name="Titolare" queryTableFieldId="6" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{9CA7A86C-0D22-4FDB-B489-BA3F349E3054}" uniqueName="7" name="Min_giocati" queryTableFieldId="7" dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{5BAA6B3B-DB85-4AA2-8BD7-C7933A9BDC48}" uniqueName="8" name="Min_90" queryTableFieldId="8" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{C116BB72-6EA7-4A5B-8409-C62249EAD314}" uniqueName="9" name="Reti_sub" queryTableFieldId="9" dataDxfId="21"/>
+    <tableColumn id="10" xr3:uid="{0A8A30E8-B690-41E4-9987-7F972ECCA0D9}" uniqueName="10" name="Reti_sub_90" queryTableFieldId="10" dataDxfId="20"/>
+    <tableColumn id="11" xr3:uid="{13383F85-4DE6-4D5F-A323-79C42D1F9286}" uniqueName="11" name="Tiri_sub" queryTableFieldId="11" dataDxfId="19"/>
+    <tableColumn id="12" xr3:uid="{04E73F19-FAAF-4610-9284-E997203F5B5A}" uniqueName="12" name="Parate" queryTableFieldId="12" dataDxfId="18"/>
+    <tableColumn id="13" xr3:uid="{0257DF28-6D21-4197-8F0E-D08FAED5C126}" uniqueName="13" name="Porta_inviolata" queryTableFieldId="13" dataDxfId="17"/>
+    <tableColumn id="14" xr3:uid="{64B3128A-F2BA-426E-83D8-A2DD2D8A4C1C}" uniqueName="14" name="Rig_tot" queryTableFieldId="14" dataDxfId="16"/>
+    <tableColumn id="15" xr3:uid="{487A0F8C-3358-4639-ACFC-5090038A5FD1}" uniqueName="15" name="Rig_concessi" queryTableFieldId="15" dataDxfId="15"/>
+    <tableColumn id="16" xr3:uid="{960C59B0-55FC-47C3-9E36-1C8B2FA14B78}" uniqueName="16" name="Rig_salvati" queryTableFieldId="16" dataDxfId="14"/>
+    <tableColumn id="17" xr3:uid="{63B2330A-1FFC-4FCD-9AD9-F3D34610E719}" uniqueName="17" name="Rig_mancati" queryTableFieldId="17" dataDxfId="13"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{EC028F3D-3575-4E03-9D37-8DE4E9D65902}" name="Tabella4" displayName="Tabella4" ref="A1:Q36" totalsRowShown="0">
-  <autoFilter ref="A1:Q36" xr:uid="{092765E2-9F72-4EC0-B6AB-9EE4F74F071B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{EC028F3D-3575-4E03-9D37-8DE4E9D65902}" name="Tabella4" displayName="Tabella4" ref="A1:Q37" totalsRowShown="0">
+  <autoFilter ref="A1:Q37" xr:uid="{092765E2-9F72-4EC0-B6AB-9EE4F74F071B}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+    <filterColumn colId="10" hiddenButton="1"/>
+    <filterColumn colId="11" hiddenButton="1"/>
+    <filterColumn colId="12" hiddenButton="1"/>
+    <filterColumn colId="13" hiddenButton="1"/>
+    <filterColumn colId="14" hiddenButton="1"/>
+    <filterColumn colId="15" hiddenButton="1"/>
+    <filterColumn colId="16" hiddenButton="1"/>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q36">
     <sortCondition ref="A1:A36"/>
   </sortState>
@@ -590,21 +621,23 @@
     <tableColumn id="2" xr3:uid="{058D8316-C0A9-43C6-ADE4-02AD7FC86850}" name="Nome_Cognome"/>
     <tableColumn id="4" xr3:uid="{5539A54E-D114-4FEC-B0C8-0B91FCF131DE}" name="Ruolo"/>
     <tableColumn id="5" xr3:uid="{2E9C44B0-81BD-4E4A-8C02-B999BC4AFAA1}" name="Squadra"/>
-    <tableColumn id="8" xr3:uid="{7EF233F5-6EAA-4E6E-8132-DD9DC1E52BB1}" name="Partite_giocate" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{07AFAD2E-306C-4DCB-B1D5-E2ECEDA7D9A7}" name="Titolare" dataDxfId="14"/>
-    <tableColumn id="10" xr3:uid="{21EF4890-E030-4AAB-B898-323F6919628E}" name="Min_giocati" dataDxfId="13"/>
-    <tableColumn id="11" xr3:uid="{407FFFE3-2924-4F64-A9B4-CADD8D5151FD}" name="Min_90" dataDxfId="12"/>
-    <tableColumn id="12" xr3:uid="{620801CC-56E8-452A-8BDE-2CD85FE064FB}" name="Reti_sub" dataDxfId="11"/>
-    <tableColumn id="13" xr3:uid="{FD117816-C27A-4ACE-90AA-CFFB03132345}" name="Reti_sub_90" dataDxfId="10"/>
-    <tableColumn id="14" xr3:uid="{EFCA6C27-DE4A-41E4-ABFA-15E238416C73}" name="Tiri_sub" dataDxfId="9"/>
-    <tableColumn id="15" xr3:uid="{567A719C-E7B0-464C-A80E-E10EA78B6D00}" name="Parate" dataDxfId="8"/>
-    <tableColumn id="19" xr3:uid="{279CD7C0-EC35-446E-B1E5-99CBDF9414DD}" name="Porta_inviolata" dataDxfId="7"/>
-    <tableColumn id="20" xr3:uid="{FF2DAB66-492E-47D8-84AB-2BA555FD52AE}" name="Rig_tot" dataDxfId="6"/>
-    <tableColumn id="21" xr3:uid="{5737A68A-E794-4E7A-A46B-FF7FE7DA97F3}" name="Rig_concessi" dataDxfId="5"/>
-    <tableColumn id="22" xr3:uid="{B889EC4D-822E-4585-8030-DBB32A8BC914}" name="Rig_salvati" dataDxfId="4"/>
-    <tableColumn id="23" xr3:uid="{340AA65B-4499-4EA0-A90B-DBB9F99EA2CB}" name="Rig_mancati" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{7EF233F5-6EAA-4E6E-8132-DD9DC1E52BB1}" name="Partite_giocate" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{07AFAD2E-306C-4DCB-B1D5-E2ECEDA7D9A7}" name="Titolare" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{21EF4890-E030-4AAB-B898-323F6919628E}" name="Min_giocati" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{407FFFE3-2924-4F64-A9B4-CADD8D5151FD}" name="Min_90" dataDxfId="9">
+      <calculatedColumnFormula>Tabella4[[#This Row],[Min_giocati]]/90</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{620801CC-56E8-452A-8BDE-2CD85FE064FB}" name="Reti_sub" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{FD117816-C27A-4ACE-90AA-CFFB03132345}" name="Reti_sub_90" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{EFCA6C27-DE4A-41E4-ABFA-15E238416C73}" name="Tiri_sub" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{567A719C-E7B0-464C-A80E-E10EA78B6D00}" name="Parate" dataDxfId="5"/>
+    <tableColumn id="19" xr3:uid="{279CD7C0-EC35-446E-B1E5-99CBDF9414DD}" name="Porta_inviolata" dataDxfId="4"/>
+    <tableColumn id="20" xr3:uid="{FF2DAB66-492E-47D8-84AB-2BA555FD52AE}" name="Rig_tot" dataDxfId="3"/>
+    <tableColumn id="21" xr3:uid="{5737A68A-E794-4E7A-A46B-FF7FE7DA97F3}" name="Rig_concessi" dataDxfId="2"/>
+    <tableColumn id="22" xr3:uid="{B889EC4D-822E-4585-8030-DBB32A8BC914}" name="Rig_salvati" dataDxfId="1"/>
+    <tableColumn id="23" xr3:uid="{340AA65B-4499-4EA0-A90B-DBB9F99EA2CB}" name="Rig_mancati" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -907,29 +940,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8C7C21-4A60-47BC-8E1D-1861227561BB}">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B36" sqref="B2:B36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" customWidth="1"/>
-    <col min="3" max="4" width="9.109375" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.88671875" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -985,14 +1018,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>3</v>
       </c>
       <c r="D2" t="s">
@@ -1041,14 +1074,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>63</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>5.0199999999999996</v>
       </c>
       <c r="D3" t="s">
@@ -1097,14 +1130,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>5.8</v>
       </c>
       <c r="D4" t="s">
@@ -1153,14 +1186,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>61</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>4.6900000000000004</v>
       </c>
       <c r="D5" t="s">
@@ -1209,14 +1242,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>3.73</v>
       </c>
       <c r="D6" t="s">
@@ -1265,14 +1298,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7">
+        <v>65</v>
+      </c>
+      <c r="C7" s="1">
         <v>3.75</v>
       </c>
       <c r="D7" t="s">
@@ -1321,14 +1354,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>4.71</v>
       </c>
       <c r="D8" t="s">
@@ -1377,14 +1410,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>5.3</v>
       </c>
       <c r="D9" t="s">
@@ -1433,14 +1466,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10">
+        <v>66</v>
+      </c>
+      <c r="C10" s="1">
         <v>4.8499999999999996</v>
       </c>
       <c r="D10" t="s">
@@ -1489,14 +1522,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>57</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>5.6</v>
       </c>
       <c r="D11" t="s">
@@ -1545,14 +1578,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12">
+        <v>67</v>
+      </c>
+      <c r="C12" s="1">
         <v>5.27</v>
       </c>
       <c r="D12" t="s">
@@ -1601,14 +1634,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13">
+        <v>68</v>
+      </c>
+      <c r="C13" s="1">
         <v>4.84</v>
       </c>
       <c r="D13" t="s">
@@ -1657,14 +1690,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>56</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>3.5</v>
       </c>
       <c r="D14" t="s">
@@ -1713,14 +1746,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>4.75</v>
       </c>
       <c r="D15" t="s">
@@ -1769,14 +1802,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16">
+        <v>69</v>
+      </c>
+      <c r="C16" s="1">
         <v>3.75</v>
       </c>
       <c r="D16" t="s">
@@ -1825,14 +1858,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>54</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>4.82</v>
       </c>
       <c r="D17" t="s">
@@ -1881,14 +1914,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18">
+        <v>70</v>
+      </c>
+      <c r="C18" s="1">
         <v>4.0199999999999996</v>
       </c>
       <c r="D18" t="s">
@@ -1937,14 +1970,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>53</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>4.92</v>
       </c>
       <c r="D19" t="s">
@@ -1993,14 +2026,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>52</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>5.15</v>
       </c>
       <c r="D20" t="s">
@@ -2049,14 +2082,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>51</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>4.75</v>
       </c>
       <c r="D21" t="s">
@@ -2105,14 +2138,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>50</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>6.5</v>
       </c>
       <c r="D22" t="s">
@@ -2161,14 +2194,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>49</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>4.95</v>
       </c>
       <c r="D23" t="s">
@@ -2217,14 +2250,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>48</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>4.43</v>
       </c>
       <c r="D24" t="s">
@@ -2273,14 +2306,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>47</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>5.75</v>
       </c>
       <c r="D25" t="s">
@@ -2329,14 +2362,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>46</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>1</v>
       </c>
       <c r="D26" t="s">
@@ -2385,14 +2418,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>45</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>4.92</v>
       </c>
       <c r="D27" t="s">
@@ -2441,14 +2474,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>44</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>4</v>
       </c>
       <c r="D28" t="s">
@@ -2497,14 +2530,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>43</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>5.0199999999999996</v>
       </c>
       <c r="D29" t="s">
@@ -2553,14 +2586,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>42</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>4.07</v>
       </c>
       <c r="D30" t="s">
@@ -2609,14 +2642,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31">
+        <v>71</v>
+      </c>
+      <c r="C31" s="1">
         <v>5.1100000000000003</v>
       </c>
       <c r="D31" t="s">
@@ -2665,14 +2698,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>41</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>5.08</v>
       </c>
       <c r="D32" t="s">
@@ -2721,14 +2754,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>40</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>3.75</v>
       </c>
       <c r="D33" t="s">
@@ -2777,14 +2810,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34">
+        <v>72</v>
+      </c>
+      <c r="C34" s="1">
         <v>5.5</v>
       </c>
       <c r="D34" t="s">
@@ -2833,14 +2866,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35">
+        <v>73</v>
+      </c>
+      <c r="C35" s="1">
         <v>2</v>
       </c>
       <c r="D35" t="s">
@@ -2889,14 +2922,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>39</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>4</v>
       </c>
       <c r="D36" t="s">
@@ -2958,31 +2991,31 @@
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B2:B36"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.88671875" customWidth="1"/>
-    <col min="14" max="14" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3035,7 +3068,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3048,47 +3081,49 @@
       <c r="D2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1">
         <v>180</v>
       </c>
-      <c r="H2">
-        <v>20</v>
-      </c>
-      <c r="I2">
+      <c r="H2" s="1">
+        <f>Portieri__2[[#This Row],[Min_giocati]]/90</f>
+        <v>2</v>
+      </c>
+      <c r="I2" s="1">
         <v>5</v>
       </c>
-      <c r="J2">
-        <v>250</v>
-      </c>
-      <c r="K2">
+      <c r="J2" s="1">
+        <f>Portieri__2[[#This Row],[Reti_sub]]/Portieri__2[[#This Row],[Min_90]]</f>
+        <v>2.5</v>
+      </c>
+      <c r="K2" s="1">
         <v>7</v>
       </c>
-      <c r="L2">
-        <v>2</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L2" s="1">
+        <v>2</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3101,47 +3136,49 @@
       <c r="D3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>27</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>27</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>2430</v>
       </c>
-      <c r="H3">
-        <v>270</v>
-      </c>
-      <c r="I3">
+      <c r="H3" s="1">
+        <f>Portieri__2[[#This Row],[Min_giocati]]/90</f>
+        <v>27</v>
+      </c>
+      <c r="I3" s="1">
         <v>42</v>
       </c>
-      <c r="J3">
-        <v>156</v>
-      </c>
-      <c r="K3">
+      <c r="J3" s="1">
+        <f>Portieri__2[[#This Row],[Reti_sub]]/Portieri__2[[#This Row],[Min_90]]</f>
+        <v>1.5555555555555556</v>
+      </c>
+      <c r="K3" s="1">
         <v>124</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="1">
         <v>87</v>
       </c>
-      <c r="M3">
-        <v>2</v>
-      </c>
-      <c r="N3">
+      <c r="M3" s="1">
+        <v>2</v>
+      </c>
+      <c r="N3" s="1">
         <v>7</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="1">
         <v>6</v>
       </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3154,47 +3191,49 @@
       <c r="D4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>5</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>5</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>450</v>
       </c>
-      <c r="H4">
-        <v>50</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4">
-        <v>40</v>
-      </c>
-      <c r="K4">
+      <c r="H4" s="1">
+        <f>Portieri__2[[#This Row],[Min_giocati]]/90</f>
+        <v>5</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1">
+        <f>Portieri__2[[#This Row],[Reti_sub]]/Portieri__2[[#This Row],[Min_90]]</f>
+        <v>0.4</v>
+      </c>
+      <c r="K4" s="1">
         <v>11</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="1">
         <v>10</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="1">
         <v>3</v>
       </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3207,47 +3246,49 @@
       <c r="D5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>26</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>26</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>2340</v>
       </c>
-      <c r="H5">
-        <v>260</v>
-      </c>
-      <c r="I5">
+      <c r="H5" s="1">
+        <f>Portieri__2[[#This Row],[Min_giocati]]/90</f>
+        <v>26</v>
+      </c>
+      <c r="I5" s="1">
         <v>44</v>
       </c>
-      <c r="J5">
-        <v>169</v>
-      </c>
-      <c r="K5">
+      <c r="J5" s="1">
+        <f>Portieri__2[[#This Row],[Reti_sub]]/Portieri__2[[#This Row],[Min_90]]</f>
+        <v>1.6923076923076923</v>
+      </c>
+      <c r="K5" s="1">
         <v>127</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="1">
         <v>85</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="1">
         <v>4</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="1">
         <v>3</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="1">
         <v>3</v>
       </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3260,52 +3301,54 @@
       <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>27</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>27</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>2430</v>
       </c>
-      <c r="H6">
-        <v>270</v>
-      </c>
-      <c r="I6">
+      <c r="H6" s="1">
+        <f>Portieri__2[[#This Row],[Min_giocati]]/90</f>
+        <v>27</v>
+      </c>
+      <c r="I6" s="1">
         <v>67</v>
       </c>
-      <c r="J6">
-        <v>248</v>
-      </c>
-      <c r="K6">
+      <c r="J6" s="1">
+        <f>Portieri__2[[#This Row],[Reti_sub]]/Portieri__2[[#This Row],[Min_90]]</f>
+        <v>2.4814814814814814</v>
+      </c>
+      <c r="K6" s="1">
         <v>151</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="1">
         <v>86</v>
       </c>
-      <c r="M6">
-        <v>2</v>
-      </c>
-      <c r="N6">
+      <c r="M6" s="1">
+        <v>2</v>
+      </c>
+      <c r="N6" s="1">
         <v>5</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="1">
         <v>5</v>
       </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
@@ -3313,47 +3356,49 @@
       <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>6</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>6</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>540</v>
       </c>
-      <c r="H7">
-        <v>60</v>
-      </c>
-      <c r="I7">
+      <c r="H7" s="1">
+        <f>Portieri__2[[#This Row],[Min_giocati]]/90</f>
+        <v>6</v>
+      </c>
+      <c r="I7" s="1">
         <v>9</v>
       </c>
-      <c r="J7">
-        <v>150</v>
-      </c>
-      <c r="K7">
+      <c r="J7" s="1">
+        <f>Portieri__2[[#This Row],[Reti_sub]]/Portieri__2[[#This Row],[Min_90]]</f>
+        <v>1.5</v>
+      </c>
+      <c r="K7" s="1">
         <v>26</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="1">
         <v>17</v>
       </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3366,47 +3411,49 @@
       <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>27</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>27</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>2430</v>
       </c>
-      <c r="H8">
-        <v>270</v>
-      </c>
-      <c r="I8">
+      <c r="H8" s="1">
+        <f>Portieri__2[[#This Row],[Min_giocati]]/90</f>
+        <v>27</v>
+      </c>
+      <c r="I8" s="1">
         <v>46</v>
       </c>
-      <c r="J8">
-        <v>170</v>
-      </c>
-      <c r="K8">
+      <c r="J8" s="1">
+        <f>Portieri__2[[#This Row],[Reti_sub]]/Portieri__2[[#This Row],[Min_90]]</f>
+        <v>1.7037037037037037</v>
+      </c>
+      <c r="K8" s="1">
         <v>147</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="1">
         <v>103</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="1">
         <v>4</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="1">
         <v>5</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="1">
         <v>5</v>
       </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3419,52 +3466,54 @@
       <c r="D9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>26</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>26</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>2340</v>
       </c>
-      <c r="H9">
-        <v>260</v>
-      </c>
-      <c r="I9">
+      <c r="H9" s="1">
+        <f>Portieri__2[[#This Row],[Min_giocati]]/90</f>
+        <v>26</v>
+      </c>
+      <c r="I9" s="1">
         <v>28</v>
       </c>
-      <c r="J9">
-        <v>108</v>
-      </c>
-      <c r="K9">
+      <c r="J9" s="1">
+        <f>Portieri__2[[#This Row],[Reti_sub]]/Portieri__2[[#This Row],[Min_90]]</f>
+        <v>1.0769230769230769</v>
+      </c>
+      <c r="K9" s="1">
         <v>95</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="1">
         <v>70</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="1">
         <v>9</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="1">
         <v>4</v>
       </c>
-      <c r="O9">
-        <v>2</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O9" s="1">
+        <v>2</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
@@ -3472,47 +3521,49 @@
       <c r="D10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>27</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>27</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>2430</v>
       </c>
-      <c r="H10">
-        <v>270</v>
-      </c>
-      <c r="I10">
+      <c r="H10" s="1">
+        <f>Portieri__2[[#This Row],[Min_giocati]]/90</f>
+        <v>27</v>
+      </c>
+      <c r="I10" s="1">
         <v>42</v>
       </c>
-      <c r="J10">
-        <v>156</v>
-      </c>
-      <c r="K10">
+      <c r="J10" s="1">
+        <f>Portieri__2[[#This Row],[Reti_sub]]/Portieri__2[[#This Row],[Min_90]]</f>
+        <v>1.5555555555555556</v>
+      </c>
+      <c r="K10" s="1">
         <v>102</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="1">
         <v>66</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="1">
         <v>6</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="1">
         <v>7</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="1">
         <v>5</v>
       </c>
-      <c r="P10">
-        <v>2</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P10" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3525,52 +3576,54 @@
       <c r="D11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>15</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>15</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>1325</v>
       </c>
-      <c r="H11">
-        <v>147</v>
-      </c>
-      <c r="I11">
+      <c r="H11" s="1">
+        <f>Portieri__2[[#This Row],[Min_giocati]]/90</f>
+        <v>14.722222222222221</v>
+      </c>
+      <c r="I11" s="1">
         <v>16</v>
       </c>
-      <c r="J11">
-        <v>109</v>
-      </c>
-      <c r="K11">
+      <c r="J11" s="1">
+        <f>Portieri__2[[#This Row],[Reti_sub]]/Portieri__2[[#This Row],[Min_90]]</f>
+        <v>1.0867924528301887</v>
+      </c>
+      <c r="K11" s="1">
         <v>43</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="1">
         <v>27</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="1">
         <v>5</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="1">
         <v>3</v>
       </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-      <c r="P11">
-        <v>2</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>18</v>
@@ -3578,52 +3631,54 @@
       <c r="D12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>27</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>27</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>2430</v>
       </c>
-      <c r="H12">
-        <v>270</v>
-      </c>
-      <c r="I12">
+      <c r="H12" s="1">
+        <f>Portieri__2[[#This Row],[Min_giocati]]/90</f>
+        <v>27</v>
+      </c>
+      <c r="I12" s="1">
         <v>26</v>
       </c>
-      <c r="J12">
-        <v>96</v>
-      </c>
-      <c r="K12">
+      <c r="J12" s="1">
+        <f>Portieri__2[[#This Row],[Reti_sub]]/Portieri__2[[#This Row],[Min_90]]</f>
+        <v>0.96296296296296291</v>
+      </c>
+      <c r="K12" s="1">
         <v>89</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="1">
         <v>65</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="1">
         <v>10</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="1">
         <v>4</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="1">
         <v>3</v>
       </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>18</v>
@@ -3631,47 +3686,49 @@
       <c r="D13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>17</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>16</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>1457</v>
       </c>
-      <c r="H13">
-        <v>162</v>
-      </c>
-      <c r="I13">
+      <c r="H13" s="1">
+        <f>Portieri__2[[#This Row],[Min_giocati]]/90</f>
+        <v>16.18888888888889</v>
+      </c>
+      <c r="I13" s="1">
         <v>21</v>
       </c>
-      <c r="J13">
-        <v>130</v>
-      </c>
-      <c r="K13">
+      <c r="J13" s="1">
+        <f>Portieri__2[[#This Row],[Reti_sub]]/Portieri__2[[#This Row],[Min_90]]</f>
+        <v>1.2971859986273162</v>
+      </c>
+      <c r="K13" s="1">
         <v>56</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="1">
         <v>41</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="1">
         <v>4</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="1">
         <v>3</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="1">
         <v>3</v>
       </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3684,47 +3741,49 @@
       <c r="D14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>3</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>3</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <v>244</v>
       </c>
-      <c r="H14">
-        <v>27</v>
-      </c>
-      <c r="I14">
+      <c r="H14" s="1">
+        <f>Portieri__2[[#This Row],[Min_giocati]]/90</f>
+        <v>2.7111111111111112</v>
+      </c>
+      <c r="I14" s="1">
         <v>7</v>
       </c>
-      <c r="J14">
-        <v>258</v>
-      </c>
-      <c r="K14">
+      <c r="J14" s="1">
+        <f>Portieri__2[[#This Row],[Reti_sub]]/Portieri__2[[#This Row],[Min_90]]</f>
+        <v>2.581967213114754</v>
+      </c>
+      <c r="K14" s="1">
         <v>13</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="1">
         <v>6</v>
       </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3737,52 +3796,54 @@
       <c r="D15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>12</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>12</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>1080</v>
       </c>
-      <c r="H15">
-        <v>120</v>
-      </c>
-      <c r="I15">
+      <c r="H15" s="1">
+        <f>Portieri__2[[#This Row],[Min_giocati]]/90</f>
+        <v>12</v>
+      </c>
+      <c r="I15" s="1">
         <v>17</v>
       </c>
-      <c r="J15">
-        <v>142</v>
-      </c>
-      <c r="K15">
+      <c r="J15" s="1">
+        <f>Portieri__2[[#This Row],[Reti_sub]]/Portieri__2[[#This Row],[Min_90]]</f>
+        <v>1.4166666666666667</v>
+      </c>
+      <c r="K15" s="1">
         <v>49</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="1">
         <v>35</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="1">
         <v>4</v>
       </c>
-      <c r="N15">
-        <v>2</v>
-      </c>
-      <c r="O15">
-        <v>2</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N15" s="1">
+        <v>2</v>
+      </c>
+      <c r="O15" s="1">
+        <v>2</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>18</v>
@@ -3790,47 +3851,49 @@
       <c r="D16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16">
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1">
         <v>180</v>
       </c>
-      <c r="H16">
-        <v>20</v>
-      </c>
-      <c r="I16">
+      <c r="H16" s="1">
+        <f>Portieri__2[[#This Row],[Min_giocati]]/90</f>
+        <v>2</v>
+      </c>
+      <c r="I16" s="1">
         <v>4</v>
       </c>
-      <c r="J16">
-        <v>200</v>
-      </c>
-      <c r="K16">
+      <c r="J16" s="1">
+        <f>Portieri__2[[#This Row],[Reti_sub]]/Portieri__2[[#This Row],[Min_90]]</f>
+        <v>2</v>
+      </c>
+      <c r="K16" s="1">
         <v>10</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="1">
         <v>7</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3843,52 +3906,54 @@
       <c r="D17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>11</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>11</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <v>973</v>
       </c>
-      <c r="H17">
-        <v>108</v>
-      </c>
-      <c r="I17">
+      <c r="H17" s="1">
+        <f>Portieri__2[[#This Row],[Min_giocati]]/90</f>
+        <v>10.811111111111112</v>
+      </c>
+      <c r="I17" s="1">
         <v>16</v>
       </c>
-      <c r="J17">
-        <v>148</v>
-      </c>
-      <c r="K17">
+      <c r="J17" s="1">
+        <f>Portieri__2[[#This Row],[Reti_sub]]/Portieri__2[[#This Row],[Min_90]]</f>
+        <v>1.4799588900308325</v>
+      </c>
+      <c r="K17" s="1">
         <v>39</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="1">
         <v>24</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="1">
         <v>4</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="1">
         <v>3</v>
       </c>
-      <c r="O17">
-        <v>2</v>
-      </c>
-      <c r="P17">
-        <v>1</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O17" s="1">
+        <v>2</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>18</v>
@@ -3896,47 +3961,49 @@
       <c r="D18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>27</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>27</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <v>2430</v>
       </c>
-      <c r="H18">
-        <v>270</v>
-      </c>
-      <c r="I18">
+      <c r="H18" s="1">
+        <f>Portieri__2[[#This Row],[Min_giocati]]/90</f>
+        <v>27</v>
+      </c>
+      <c r="I18" s="1">
         <v>52</v>
       </c>
-      <c r="J18">
-        <v>193</v>
-      </c>
-      <c r="K18">
+      <c r="J18" s="1">
+        <f>Portieri__2[[#This Row],[Reti_sub]]/Portieri__2[[#This Row],[Min_90]]</f>
+        <v>1.9259259259259258</v>
+      </c>
+      <c r="K18" s="1">
         <v>117</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="1">
         <v>70</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="1">
         <v>6</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="1">
         <v>3</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="1">
         <v>3</v>
       </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3949,47 +4016,49 @@
       <c r="D19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>25</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>25</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <v>2250</v>
       </c>
-      <c r="H19">
-        <v>250</v>
-      </c>
-      <c r="I19">
+      <c r="H19" s="1">
+        <f>Portieri__2[[#This Row],[Min_giocati]]/90</f>
+        <v>25</v>
+      </c>
+      <c r="I19" s="1">
         <v>30</v>
       </c>
-      <c r="J19">
-        <v>120</v>
-      </c>
-      <c r="K19">
+      <c r="J19" s="1">
+        <f>Portieri__2[[#This Row],[Reti_sub]]/Portieri__2[[#This Row],[Min_90]]</f>
+        <v>1.2</v>
+      </c>
+      <c r="K19" s="1">
         <v>89</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="1">
         <v>65</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="1">
         <v>8</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="1">
         <v>6</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="1">
         <v>6</v>
       </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4002,47 +4071,49 @@
       <c r="D20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>14</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>14</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
         <v>1260</v>
       </c>
-      <c r="H20">
-        <v>140</v>
-      </c>
-      <c r="I20">
+      <c r="H20" s="1">
+        <f>Portieri__2[[#This Row],[Min_giocati]]/90</f>
+        <v>14</v>
+      </c>
+      <c r="I20" s="1">
         <v>12</v>
       </c>
-      <c r="J20">
-        <v>86</v>
-      </c>
-      <c r="K20">
+      <c r="J20" s="1">
+        <f>Portieri__2[[#This Row],[Reti_sub]]/Portieri__2[[#This Row],[Min_90]]</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="K20" s="1">
         <v>32</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="1">
         <v>23</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="1">
         <v>6</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="1">
         <v>3</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="1">
         <v>3</v>
       </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4055,47 +4126,49 @@
       <c r="D21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
         <v>116</v>
       </c>
-      <c r="H21">
-        <v>13</v>
-      </c>
-      <c r="I21">
+      <c r="H21" s="1">
+        <f>Portieri__2[[#This Row],[Min_giocati]]/90</f>
+        <v>1.288888888888889</v>
+      </c>
+      <c r="I21" s="1">
         <v>3</v>
       </c>
-      <c r="J21">
-        <v>233</v>
-      </c>
-      <c r="K21">
+      <c r="J21" s="1">
+        <f>Portieri__2[[#This Row],[Reti_sub]]/Portieri__2[[#This Row],[Min_90]]</f>
+        <v>2.3275862068965516</v>
+      </c>
+      <c r="K21" s="1">
         <v>8</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="1">
         <v>4</v>
       </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4108,47 +4181,49 @@
       <c r="D22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
         <v>90</v>
       </c>
-      <c r="H22">
-        <v>10</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H22" s="1">
+        <f>Portieri__2[[#This Row],[Min_giocati]]/90</f>
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <f>Portieri__2[[#This Row],[Reti_sub]]/Portieri__2[[#This Row],[Min_90]]</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1">
+        <v>1</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4161,47 +4236,49 @@
       <c r="D23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>23</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="1">
         <v>23</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="1">
         <v>2069</v>
       </c>
-      <c r="H23">
-        <v>230</v>
-      </c>
-      <c r="I23">
+      <c r="H23" s="1">
+        <f>Portieri__2[[#This Row],[Min_giocati]]/90</f>
+        <v>22.988888888888887</v>
+      </c>
+      <c r="I23" s="1">
         <v>29</v>
       </c>
-      <c r="J23">
-        <v>126</v>
-      </c>
-      <c r="K23">
+      <c r="J23" s="1">
+        <f>Portieri__2[[#This Row],[Reti_sub]]/Portieri__2[[#This Row],[Min_90]]</f>
+        <v>1.261478975350411</v>
+      </c>
+      <c r="K23" s="1">
         <v>100</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="1">
         <v>74</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="1">
         <v>6</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="1">
         <v>5</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="1">
         <v>5</v>
       </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4214,47 +4291,49 @@
       <c r="D24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <v>22</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="1">
         <v>22</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="1">
         <v>1980</v>
       </c>
-      <c r="H24">
-        <v>220</v>
-      </c>
-      <c r="I24">
+      <c r="H24" s="1">
+        <f>Portieri__2[[#This Row],[Min_giocati]]/90</f>
+        <v>22</v>
+      </c>
+      <c r="I24" s="1">
         <v>39</v>
       </c>
-      <c r="J24">
-        <v>177</v>
-      </c>
-      <c r="K24">
+      <c r="J24" s="1">
+        <f>Portieri__2[[#This Row],[Reti_sub]]/Portieri__2[[#This Row],[Min_90]]</f>
+        <v>1.7727272727272727</v>
+      </c>
+      <c r="K24" s="1">
         <v>88</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="1">
         <v>54</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="1">
         <v>4</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="1">
         <v>6</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="1">
         <v>5</v>
       </c>
-      <c r="P24">
-        <v>1</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P24" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4267,47 +4346,49 @@
       <c r="D25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
+      <c r="E25" s="1">
+        <v>2</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
         <v>117</v>
       </c>
-      <c r="H25">
-        <v>13</v>
-      </c>
-      <c r="I25">
+      <c r="H25" s="1">
+        <f>Portieri__2[[#This Row],[Min_giocati]]/90</f>
+        <v>1.3</v>
+      </c>
+      <c r="I25" s="1">
         <v>3</v>
       </c>
-      <c r="J25">
-        <v>231</v>
-      </c>
-      <c r="K25">
+      <c r="J25" s="1">
+        <f>Portieri__2[[#This Row],[Reti_sub]]/Portieri__2[[#This Row],[Min_90]]</f>
+        <v>2.3076923076923075</v>
+      </c>
+      <c r="K25" s="1">
         <v>9</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="1">
         <v>6</v>
       </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M25" s="1">
+        <v>1</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4320,47 +4401,49 @@
       <c r="D26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
         <v>90</v>
       </c>
-      <c r="H26">
-        <v>10</v>
-      </c>
-      <c r="I26">
+      <c r="H26" s="1">
+        <f>Portieri__2[[#This Row],[Min_giocati]]/90</f>
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
         <v>5</v>
       </c>
-      <c r="J26">
-        <v>500</v>
-      </c>
-      <c r="K26">
+      <c r="J26" s="1">
+        <f>Portieri__2[[#This Row],[Reti_sub]]/Portieri__2[[#This Row],[Min_90]]</f>
+        <v>5</v>
+      </c>
+      <c r="K26" s="1">
         <v>7</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="1">
         <v>3</v>
       </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4373,47 +4456,49 @@
       <c r="D27" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="1">
         <v>20</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="1">
         <v>20</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="1">
         <v>1800</v>
       </c>
-      <c r="H27">
-        <v>200</v>
-      </c>
-      <c r="I27">
+      <c r="H27" s="1">
+        <f>Portieri__2[[#This Row],[Min_giocati]]/90</f>
+        <v>20</v>
+      </c>
+      <c r="I27" s="1">
         <v>25</v>
       </c>
-      <c r="J27">
-        <v>125</v>
-      </c>
-      <c r="K27">
+      <c r="J27" s="1">
+        <f>Portieri__2[[#This Row],[Reti_sub]]/Portieri__2[[#This Row],[Min_90]]</f>
+        <v>1.25</v>
+      </c>
+      <c r="K27" s="1">
         <v>73</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="1">
         <v>53</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="1">
         <v>6</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="1">
         <v>5</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="1">
         <v>5</v>
       </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4426,47 +4511,49 @@
       <c r="D28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
         <v>27</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="1">
         <v>27</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="1">
         <v>2430</v>
       </c>
-      <c r="H28">
-        <v>270</v>
-      </c>
-      <c r="I28">
+      <c r="H28" s="1">
+        <f>Portieri__2[[#This Row],[Min_giocati]]/90</f>
+        <v>27</v>
+      </c>
+      <c r="I28" s="1">
         <v>52</v>
       </c>
-      <c r="J28">
-        <v>193</v>
-      </c>
-      <c r="K28">
+      <c r="J28" s="1">
+        <f>Portieri__2[[#This Row],[Reti_sub]]/Portieri__2[[#This Row],[Min_90]]</f>
+        <v>1.9259259259259258</v>
+      </c>
+      <c r="K28" s="1">
         <v>130</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="1">
         <v>81</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="1">
         <v>5</v>
       </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>1</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N28" s="1">
+        <v>1</v>
+      </c>
+      <c r="O28" s="1">
+        <v>1</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4479,47 +4566,49 @@
       <c r="D29" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1">
         <v>27</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="1">
         <v>27</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="1">
         <v>2430</v>
       </c>
-      <c r="H29">
-        <v>270</v>
-      </c>
-      <c r="I29">
+      <c r="H29" s="1">
+        <f>Portieri__2[[#This Row],[Min_giocati]]/90</f>
+        <v>27</v>
+      </c>
+      <c r="I29" s="1">
         <v>32</v>
       </c>
-      <c r="J29">
-        <v>119</v>
-      </c>
-      <c r="K29">
+      <c r="J29" s="1">
+        <f>Portieri__2[[#This Row],[Reti_sub]]/Portieri__2[[#This Row],[Min_90]]</f>
+        <v>1.1851851851851851</v>
+      </c>
+      <c r="K29" s="1">
         <v>102</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="1">
         <v>73</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="1">
         <v>6</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="1">
         <v>4</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="1">
         <v>3</v>
       </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4532,52 +4621,54 @@
       <c r="D30" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <v>24</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="1">
         <v>24</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="1">
         <v>2160</v>
       </c>
-      <c r="H30">
-        <v>240</v>
-      </c>
-      <c r="I30">
+      <c r="H30" s="1">
+        <f>Portieri__2[[#This Row],[Min_giocati]]/90</f>
+        <v>24</v>
+      </c>
+      <c r="I30" s="1">
         <v>45</v>
       </c>
-      <c r="J30">
-        <v>187</v>
-      </c>
-      <c r="K30">
+      <c r="J30" s="1">
+        <f>Portieri__2[[#This Row],[Reti_sub]]/Portieri__2[[#This Row],[Min_90]]</f>
+        <v>1.875</v>
+      </c>
+      <c r="K30" s="1">
         <v>83</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="1">
         <v>45</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="1">
         <v>5</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="1">
         <v>6</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="1">
         <v>6</v>
       </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>18</v>
@@ -4585,47 +4676,49 @@
       <c r="D31" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="1">
         <v>20</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="1">
         <v>20</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="1">
         <v>1800</v>
       </c>
-      <c r="H31">
-        <v>200</v>
-      </c>
-      <c r="I31">
+      <c r="H31" s="1">
+        <f>Portieri__2[[#This Row],[Min_giocati]]/90</f>
+        <v>20</v>
+      </c>
+      <c r="I31" s="1">
         <v>28</v>
       </c>
-      <c r="J31">
-        <v>140</v>
-      </c>
-      <c r="K31">
+      <c r="J31" s="1">
+        <f>Portieri__2[[#This Row],[Reti_sub]]/Portieri__2[[#This Row],[Min_90]]</f>
+        <v>1.4</v>
+      </c>
+      <c r="K31" s="1">
         <v>104</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="1">
         <v>79</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="1">
         <v>4</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="1">
         <v>4</v>
       </c>
-      <c r="O31">
-        <v>2</v>
-      </c>
-      <c r="P31">
-        <v>2</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O31" s="1">
+        <v>2</v>
+      </c>
+      <c r="P31" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4638,47 +4731,49 @@
       <c r="D32" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="1">
         <v>13</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="1">
         <v>12</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="1">
         <v>1105</v>
       </c>
-      <c r="H32">
-        <v>123</v>
-      </c>
-      <c r="I32">
-        <v>18</v>
-      </c>
-      <c r="J32">
-        <v>147</v>
-      </c>
-      <c r="K32">
+      <c r="H32" s="1">
+        <f>Portieri__2[[#This Row],[Min_giocati]]/90</f>
+        <v>12.277777777777779</v>
+      </c>
+      <c r="I32" s="1">
+        <v>18</v>
+      </c>
+      <c r="J32" s="1">
+        <f>Portieri__2[[#This Row],[Reti_sub]]/Portieri__2[[#This Row],[Min_90]]</f>
+        <v>1.4660633484162895</v>
+      </c>
+      <c r="K32" s="1">
         <v>42</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="1">
         <v>24</v>
       </c>
-      <c r="M32">
-        <v>2</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <v>1</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M32" s="1">
+        <v>2</v>
+      </c>
+      <c r="N32" s="1">
+        <v>1</v>
+      </c>
+      <c r="O32" s="1">
+        <v>0</v>
+      </c>
+      <c r="P32" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4691,52 +4786,54 @@
       <c r="D33" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="1">
         <v>6</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="1">
         <v>6</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="1">
         <v>540</v>
       </c>
-      <c r="H33">
-        <v>60</v>
-      </c>
-      <c r="I33">
+      <c r="H33" s="1">
+        <f>Portieri__2[[#This Row],[Min_giocati]]/90</f>
+        <v>6</v>
+      </c>
+      <c r="I33" s="1">
         <v>12</v>
       </c>
-      <c r="J33">
-        <v>200</v>
-      </c>
-      <c r="K33">
+      <c r="J33" s="1">
+        <f>Portieri__2[[#This Row],[Reti_sub]]/Portieri__2[[#This Row],[Min_90]]</f>
+        <v>2</v>
+      </c>
+      <c r="K33" s="1">
         <v>27</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="1">
         <v>16</v>
       </c>
-      <c r="M33">
-        <v>1</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>1</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M33" s="1">
+        <v>1</v>
+      </c>
+      <c r="N33" s="1">
+        <v>1</v>
+      </c>
+      <c r="O33" s="1">
+        <v>1</v>
+      </c>
+      <c r="P33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>18</v>
@@ -4744,52 +4841,54 @@
       <c r="D34" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="1">
         <v>21</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="1">
         <v>21</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="1">
         <v>1890</v>
       </c>
-      <c r="H34">
-        <v>210</v>
-      </c>
-      <c r="I34">
+      <c r="H34" s="1">
+        <f>Portieri__2[[#This Row],[Min_giocati]]/90</f>
+        <v>21</v>
+      </c>
+      <c r="I34" s="1">
         <v>20</v>
       </c>
-      <c r="J34">
-        <v>95</v>
-      </c>
-      <c r="K34">
+      <c r="J34" s="1">
+        <f>Portieri__2[[#This Row],[Reti_sub]]/Portieri__2[[#This Row],[Min_90]]</f>
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="K34" s="1">
         <v>68</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="1">
         <v>49</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="1">
         <v>5</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="1">
         <v>3</v>
       </c>
-      <c r="O34">
-        <v>2</v>
-      </c>
-      <c r="P34">
-        <v>1</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O34" s="1">
+        <v>2</v>
+      </c>
+      <c r="P34" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>18</v>
@@ -4797,47 +4896,49 @@
       <c r="D35" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1">
         <v>90</v>
       </c>
-      <c r="H35">
-        <v>10</v>
-      </c>
-      <c r="I35">
+      <c r="H35" s="1">
+        <f>Portieri__2[[#This Row],[Min_giocati]]/90</f>
+        <v>1</v>
+      </c>
+      <c r="I35" s="1">
         <v>3</v>
       </c>
-      <c r="J35">
-        <v>300</v>
-      </c>
-      <c r="K35">
+      <c r="J35" s="1">
+        <f>Portieri__2[[#This Row],[Reti_sub]]/Portieri__2[[#This Row],[Min_90]]</f>
+        <v>3</v>
+      </c>
+      <c r="K35" s="1">
         <v>6</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="1">
         <v>4</v>
       </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>1</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M35" s="1">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1">
+        <v>1</v>
+      </c>
+      <c r="O35" s="1">
+        <v>1</v>
+      </c>
+      <c r="P35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4850,43 +4951,45 @@
       <c r="D36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="1">
         <v>4</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="1">
         <v>4</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="1">
         <v>333</v>
       </c>
-      <c r="H36">
-        <v>37</v>
-      </c>
-      <c r="I36">
+      <c r="H36" s="1">
+        <f>Portieri__2[[#This Row],[Min_giocati]]/90</f>
+        <v>3.7</v>
+      </c>
+      <c r="I36" s="1">
         <v>8</v>
       </c>
-      <c r="J36">
-        <v>216</v>
-      </c>
-      <c r="K36">
+      <c r="J36" s="1">
+        <f>Portieri__2[[#This Row],[Reti_sub]]/Portieri__2[[#This Row],[Min_90]]</f>
+        <v>2.1621621621621618</v>
+      </c>
+      <c r="K36" s="1">
         <v>15</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="1">
         <v>8</v>
       </c>
-      <c r="M36">
-        <v>1</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>1</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
+      <c r="M36" s="1">
+        <v>1</v>
+      </c>
+      <c r="N36" s="1">
+        <v>1</v>
+      </c>
+      <c r="O36" s="1">
+        <v>1</v>
+      </c>
+      <c r="P36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4900,24 +5003,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD9AF3D-A8A0-4498-8033-F3AB2CF04395}">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="43.5546875" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" customWidth="1"/>
-    <col min="11" max="11" width="12.44140625" customWidth="1"/>
-    <col min="13" max="13" width="15.21875" customWidth="1"/>
-    <col min="15" max="15" width="13.44140625" customWidth="1"/>
-    <col min="16" max="16" width="11.77734375" customWidth="1"/>
-    <col min="17" max="17" width="13.21875" customWidth="1"/>
+    <col min="2" max="2" width="43.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4970,7 +5075,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4992,14 +5097,16 @@
       <c r="G2" s="1">
         <v>180</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>65</v>
+      <c r="H2" s="1">
+        <f>Tabella4[[#This Row],[Min_giocati]]/90</f>
+        <v>2</v>
       </c>
       <c r="I2" s="1">
         <v>5</v>
       </c>
       <c r="J2" s="1">
-        <v>250</v>
+        <f>Tabella4[[#This Row],[Reti_sub]]/Tabella4[[#This Row],[Min_90]]</f>
+        <v>2.5</v>
       </c>
       <c r="K2" s="1">
         <v>7</v>
@@ -5023,7 +5130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5045,14 +5152,16 @@
       <c r="G3" s="1">
         <v>2520</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>66</v>
+      <c r="H3" s="1">
+        <f>Tabella4[[#This Row],[Min_giocati]]/90</f>
+        <v>28</v>
       </c>
       <c r="I3" s="1">
         <v>42</v>
       </c>
       <c r="J3" s="1">
-        <v>150</v>
+        <f>Tabella4[[#This Row],[Reti_sub]]/Tabella4[[#This Row],[Min_90]]</f>
+        <v>1.5</v>
       </c>
       <c r="K3" s="1">
         <v>124</v>
@@ -5076,7 +5185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5098,14 +5207,16 @@
       <c r="G4" s="1">
         <v>450</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>67</v>
+      <c r="H4" s="1">
+        <f>Tabella4[[#This Row],[Min_giocati]]/90</f>
+        <v>5</v>
       </c>
       <c r="I4" s="1">
         <v>2</v>
       </c>
       <c r="J4" s="1">
-        <v>40</v>
+        <f>Tabella4[[#This Row],[Reti_sub]]/Tabella4[[#This Row],[Min_90]]</f>
+        <v>0.4</v>
       </c>
       <c r="K4" s="1">
         <v>11</v>
@@ -5129,7 +5240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5151,14 +5262,16 @@
       <c r="G5" s="1">
         <v>2340</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>68</v>
+      <c r="H5" s="1">
+        <f>Tabella4[[#This Row],[Min_giocati]]/90</f>
+        <v>26</v>
       </c>
       <c r="I5" s="1">
         <v>44</v>
       </c>
       <c r="J5" s="1">
-        <v>169</v>
+        <f>Tabella4[[#This Row],[Reti_sub]]/Tabella4[[#This Row],[Min_90]]</f>
+        <v>1.6923076923076923</v>
       </c>
       <c r="K5" s="1">
         <v>127</v>
@@ -5182,7 +5295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5204,14 +5317,16 @@
       <c r="G6" s="1">
         <v>2520</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>66</v>
+      <c r="H6" s="1">
+        <f>Tabella4[[#This Row],[Min_giocati]]/90</f>
+        <v>28</v>
       </c>
       <c r="I6" s="1">
         <v>70</v>
       </c>
       <c r="J6" s="1">
-        <v>250</v>
+        <f>Tabella4[[#This Row],[Reti_sub]]/Tabella4[[#This Row],[Min_90]]</f>
+        <v>2.5</v>
       </c>
       <c r="K6" s="1">
         <v>160</v>
@@ -5235,12 +5350,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -5257,14 +5372,16 @@
       <c r="G7" s="1">
         <v>540</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>70</v>
+      <c r="H7" s="1">
+        <f>Tabella4[[#This Row],[Min_giocati]]/90</f>
+        <v>6</v>
       </c>
       <c r="I7" s="1">
         <v>9</v>
       </c>
       <c r="J7" s="1">
-        <v>150</v>
+        <f>Tabella4[[#This Row],[Reti_sub]]/Tabella4[[#This Row],[Min_90]]</f>
+        <v>1.5</v>
       </c>
       <c r="K7" s="1">
         <v>26</v>
@@ -5288,7 +5405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5310,14 +5427,16 @@
       <c r="G8" s="1">
         <v>2520</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>66</v>
+      <c r="H8" s="1">
+        <f>Tabella4[[#This Row],[Min_giocati]]/90</f>
+        <v>28</v>
       </c>
       <c r="I8" s="1">
         <v>48</v>
       </c>
       <c r="J8" s="1">
-        <v>171</v>
+        <f>Tabella4[[#This Row],[Reti_sub]]/Tabella4[[#This Row],[Min_90]]</f>
+        <v>1.7142857142857142</v>
       </c>
       <c r="K8" s="1">
         <v>152</v>
@@ -5341,7 +5460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5363,14 +5482,16 @@
       <c r="G9" s="1">
         <v>2430</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>71</v>
+      <c r="H9" s="1">
+        <f>Tabella4[[#This Row],[Min_giocati]]/90</f>
+        <v>27</v>
       </c>
       <c r="I9" s="1">
         <v>30</v>
       </c>
       <c r="J9" s="1">
-        <v>111</v>
+        <f>Tabella4[[#This Row],[Reti_sub]]/Tabella4[[#This Row],[Min_90]]</f>
+        <v>1.1111111111111112</v>
       </c>
       <c r="K9" s="1">
         <v>97</v>
@@ -5394,12 +5515,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -5416,14 +5537,16 @@
       <c r="G10" s="1">
         <v>2473</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>73</v>
+      <c r="H10" s="1">
+        <f>Tabella4[[#This Row],[Min_giocati]]/90</f>
+        <v>27.477777777777778</v>
       </c>
       <c r="I10" s="1">
         <v>43</v>
       </c>
       <c r="J10" s="1">
-        <v>156</v>
+        <f>Tabella4[[#This Row],[Reti_sub]]/Tabella4[[#This Row],[Min_90]]</f>
+        <v>1.5649009300444803</v>
       </c>
       <c r="K10" s="1">
         <v>103</v>
@@ -5447,7 +5570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5469,14 +5592,16 @@
       <c r="G11" s="1">
         <v>1415</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>74</v>
+      <c r="H11" s="1">
+        <f>Tabella4[[#This Row],[Min_giocati]]/90</f>
+        <v>15.722222222222221</v>
       </c>
       <c r="I11" s="1">
         <v>16</v>
       </c>
       <c r="J11" s="1">
-        <v>102</v>
+        <f>Tabella4[[#This Row],[Reti_sub]]/Tabella4[[#This Row],[Min_90]]</f>
+        <v>1.0176678445229683</v>
       </c>
       <c r="K11" s="1">
         <v>44</v>
@@ -5500,12 +5625,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
@@ -5522,14 +5647,16 @@
       <c r="G12" s="1">
         <v>2430</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>71</v>
+      <c r="H12" s="1">
+        <f>Tabella4[[#This Row],[Min_giocati]]/90</f>
+        <v>27</v>
       </c>
       <c r="I12" s="1">
         <v>26</v>
       </c>
       <c r="J12" s="1">
-        <v>96</v>
+        <f>Tabella4[[#This Row],[Reti_sub]]/Tabella4[[#This Row],[Min_90]]</f>
+        <v>0.96296296296296291</v>
       </c>
       <c r="K12" s="1">
         <v>89</v>
@@ -5553,12 +5680,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -5575,14 +5702,16 @@
       <c r="G13" s="1">
         <v>1547</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>77</v>
+      <c r="H13" s="1">
+        <f>Tabella4[[#This Row],[Min_giocati]]/90</f>
+        <v>17.18888888888889</v>
       </c>
       <c r="I13" s="1">
         <v>23</v>
       </c>
       <c r="J13" s="1">
-        <v>134</v>
+        <f>Tabella4[[#This Row],[Reti_sub]]/Tabella4[[#This Row],[Min_90]]</f>
+        <v>1.3380736910148674</v>
       </c>
       <c r="K13" s="1">
         <v>60</v>
@@ -5606,7 +5735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5628,14 +5757,16 @@
       <c r="G14" s="1">
         <v>244</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>78</v>
+      <c r="H14" s="1">
+        <f>Tabella4[[#This Row],[Min_giocati]]/90</f>
+        <v>2.7111111111111112</v>
       </c>
       <c r="I14" s="1">
         <v>7</v>
       </c>
       <c r="J14" s="1">
-        <v>258</v>
+        <f>Tabella4[[#This Row],[Reti_sub]]/Tabella4[[#This Row],[Min_90]]</f>
+        <v>2.581967213114754</v>
       </c>
       <c r="K14" s="1">
         <v>13</v>
@@ -5659,7 +5790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5681,14 +5812,16 @@
       <c r="G15" s="1">
         <v>1080</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>79</v>
+      <c r="H15" s="1">
+        <f>Tabella4[[#This Row],[Min_giocati]]/90</f>
+        <v>12</v>
       </c>
       <c r="I15" s="1">
         <v>17</v>
       </c>
       <c r="J15" s="1">
-        <v>142</v>
+        <f>Tabella4[[#This Row],[Reti_sub]]/Tabella4[[#This Row],[Min_90]]</f>
+        <v>1.4166666666666667</v>
       </c>
       <c r="K15" s="1">
         <v>49</v>
@@ -5712,12 +5845,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -5734,14 +5867,16 @@
       <c r="G16" s="1">
         <v>180</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>65</v>
+      <c r="H16" s="1">
+        <f>Tabella4[[#This Row],[Min_giocati]]/90</f>
+        <v>2</v>
       </c>
       <c r="I16" s="1">
         <v>4</v>
       </c>
       <c r="J16" s="1">
-        <v>200</v>
+        <f>Tabella4[[#This Row],[Reti_sub]]/Tabella4[[#This Row],[Min_90]]</f>
+        <v>2</v>
       </c>
       <c r="K16" s="1">
         <v>10</v>
@@ -5765,7 +5900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5787,14 +5922,16 @@
       <c r="G17" s="1">
         <v>973</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>81</v>
+      <c r="H17" s="1">
+        <f>Tabella4[[#This Row],[Min_giocati]]/90</f>
+        <v>10.811111111111112</v>
       </c>
       <c r="I17" s="1">
         <v>16</v>
       </c>
       <c r="J17" s="1">
-        <v>148</v>
+        <f>Tabella4[[#This Row],[Reti_sub]]/Tabella4[[#This Row],[Min_90]]</f>
+        <v>1.4799588900308325</v>
       </c>
       <c r="K17" s="1">
         <v>39</v>
@@ -5818,12 +5955,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
@@ -5840,14 +5977,16 @@
       <c r="G18" s="1">
         <v>2520</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>66</v>
+      <c r="H18" s="1">
+        <f>Tabella4[[#This Row],[Min_giocati]]/90</f>
+        <v>28</v>
       </c>
       <c r="I18" s="1">
         <v>52</v>
       </c>
       <c r="J18" s="1">
-        <v>186</v>
+        <f>Tabella4[[#This Row],[Reti_sub]]/Tabella4[[#This Row],[Min_90]]</f>
+        <v>1.8571428571428572</v>
       </c>
       <c r="K18" s="1">
         <v>124</v>
@@ -5871,7 +6010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5893,14 +6032,16 @@
       <c r="G19" s="1">
         <v>2340</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>68</v>
+      <c r="H19" s="1">
+        <f>Tabella4[[#This Row],[Min_giocati]]/90</f>
+        <v>26</v>
       </c>
       <c r="I19" s="1">
         <v>31</v>
       </c>
       <c r="J19" s="1">
-        <v>119</v>
+        <f>Tabella4[[#This Row],[Reti_sub]]/Tabella4[[#This Row],[Min_90]]</f>
+        <v>1.1923076923076923</v>
       </c>
       <c r="K19" s="1">
         <v>95</v>
@@ -5924,7 +6065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5946,14 +6087,16 @@
       <c r="G20" s="1">
         <v>1350</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>83</v>
+      <c r="H20" s="1">
+        <f>Tabella4[[#This Row],[Min_giocati]]/90</f>
+        <v>15</v>
       </c>
       <c r="I20" s="1">
         <v>12</v>
       </c>
       <c r="J20" s="1">
-        <v>80</v>
+        <f>Tabella4[[#This Row],[Reti_sub]]/Tabella4[[#This Row],[Min_90]]</f>
+        <v>0.8</v>
       </c>
       <c r="K20" s="1">
         <v>35</v>
@@ -5977,7 +6120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5999,14 +6142,16 @@
       <c r="G21" s="1">
         <v>116</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>84</v>
+      <c r="H21" s="1">
+        <f>Tabella4[[#This Row],[Min_giocati]]/90</f>
+        <v>1.288888888888889</v>
       </c>
       <c r="I21" s="1">
         <v>3</v>
       </c>
       <c r="J21" s="1">
-        <v>233</v>
+        <f>Tabella4[[#This Row],[Reti_sub]]/Tabella4[[#This Row],[Min_90]]</f>
+        <v>2.3275862068965516</v>
       </c>
       <c r="K21" s="1">
         <v>8</v>
@@ -6030,7 +6175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -6052,13 +6197,15 @@
       <c r="G22" s="1">
         <v>90</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>85</v>
+      <c r="H22" s="1">
+        <f>Tabella4[[#This Row],[Min_giocati]]/90</f>
+        <v>1</v>
       </c>
       <c r="I22" s="1">
         <v>0</v>
       </c>
       <c r="J22" s="1">
+        <f>Tabella4[[#This Row],[Reti_sub]]/Tabella4[[#This Row],[Min_90]]</f>
         <v>0</v>
       </c>
       <c r="K22" s="1">
@@ -6083,7 +6230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -6105,14 +6252,16 @@
       <c r="G23" s="1">
         <v>2159</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>86</v>
+      <c r="H23" s="1">
+        <f>Tabella4[[#This Row],[Min_giocati]]/90</f>
+        <v>23.988888888888887</v>
       </c>
       <c r="I23" s="1">
         <v>30</v>
       </c>
       <c r="J23" s="1">
-        <v>125</v>
+        <f>Tabella4[[#This Row],[Reti_sub]]/Tabella4[[#This Row],[Min_90]]</f>
+        <v>1.2505789717461788</v>
       </c>
       <c r="K23" s="1">
         <v>108</v>
@@ -6136,7 +6285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -6158,14 +6307,16 @@
       <c r="G24" s="1">
         <v>1980</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>87</v>
+      <c r="H24" s="1">
+        <f>Tabella4[[#This Row],[Min_giocati]]/90</f>
+        <v>22</v>
       </c>
       <c r="I24" s="1">
         <v>39</v>
       </c>
       <c r="J24" s="1">
-        <v>177</v>
+        <f>Tabella4[[#This Row],[Reti_sub]]/Tabella4[[#This Row],[Min_90]]</f>
+        <v>1.7727272727272727</v>
       </c>
       <c r="K24" s="1">
         <v>88</v>
@@ -6189,7 +6340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -6211,14 +6362,16 @@
       <c r="G25" s="1">
         <v>117</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>84</v>
+      <c r="H25" s="1">
+        <f>Tabella4[[#This Row],[Min_giocati]]/90</f>
+        <v>1.3</v>
       </c>
       <c r="I25" s="1">
         <v>3</v>
       </c>
       <c r="J25" s="1">
-        <v>231</v>
+        <f>Tabella4[[#This Row],[Reti_sub]]/Tabella4[[#This Row],[Min_90]]</f>
+        <v>2.3076923076923075</v>
       </c>
       <c r="K25" s="1">
         <v>9</v>
@@ -6242,7 +6395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -6264,14 +6417,16 @@
       <c r="G26" s="1">
         <v>90</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>85</v>
+      <c r="H26" s="1">
+        <f>Tabella4[[#This Row],[Min_giocati]]/90</f>
+        <v>1</v>
       </c>
       <c r="I26" s="1">
         <v>5</v>
       </c>
       <c r="J26" s="1">
-        <v>500</v>
+        <f>Tabella4[[#This Row],[Reti_sub]]/Tabella4[[#This Row],[Min_90]]</f>
+        <v>5</v>
       </c>
       <c r="K26" s="1">
         <v>7</v>
@@ -6295,7 +6450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6317,14 +6472,16 @@
       <c r="G27" s="1">
         <v>1890</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>88</v>
+      <c r="H27" s="1">
+        <f>Tabella4[[#This Row],[Min_giocati]]/90</f>
+        <v>21</v>
       </c>
       <c r="I27" s="1">
         <v>25</v>
       </c>
       <c r="J27" s="1">
-        <v>119</v>
+        <f>Tabella4[[#This Row],[Reti_sub]]/Tabella4[[#This Row],[Min_90]]</f>
+        <v>1.1904761904761905</v>
       </c>
       <c r="K27" s="1">
         <v>76</v>
@@ -6348,7 +6505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6370,14 +6527,16 @@
       <c r="G28" s="1">
         <v>2520</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>66</v>
+      <c r="H28" s="1">
+        <f>Tabella4[[#This Row],[Min_giocati]]/90</f>
+        <v>28</v>
       </c>
       <c r="I28" s="1">
         <v>54</v>
       </c>
       <c r="J28" s="1">
-        <v>193</v>
+        <f>Tabella4[[#This Row],[Reti_sub]]/Tabella4[[#This Row],[Min_90]]</f>
+        <v>1.9285714285714286</v>
       </c>
       <c r="K28" s="1">
         <v>132</v>
@@ -6401,7 +6560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6423,14 +6582,16 @@
       <c r="G29" s="1">
         <v>2520</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>66</v>
+      <c r="H29" s="1">
+        <f>Tabella4[[#This Row],[Min_giocati]]/90</f>
+        <v>28</v>
       </c>
       <c r="I29" s="1">
         <v>34</v>
       </c>
       <c r="J29" s="1">
-        <v>121</v>
+        <f>Tabella4[[#This Row],[Reti_sub]]/Tabella4[[#This Row],[Min_90]]</f>
+        <v>1.2142857142857142</v>
       </c>
       <c r="K29" s="1">
         <v>107</v>
@@ -6454,7 +6615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6476,14 +6637,16 @@
       <c r="G30" s="1">
         <v>2250</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>89</v>
+      <c r="H30" s="1">
+        <f>Tabella4[[#This Row],[Min_giocati]]/90</f>
+        <v>25</v>
       </c>
       <c r="I30" s="1">
         <v>46</v>
       </c>
       <c r="J30" s="1">
-        <v>184</v>
+        <f>Tabella4[[#This Row],[Reti_sub]]/Tabella4[[#This Row],[Min_90]]</f>
+        <v>1.84</v>
       </c>
       <c r="K30" s="1">
         <v>85</v>
@@ -6507,12 +6670,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="C31" t="s">
         <v>18</v>
@@ -6529,14 +6692,16 @@
       <c r="G31" s="1">
         <v>1890</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>88</v>
+      <c r="H31" s="1">
+        <f>Tabella4[[#This Row],[Min_giocati]]/90</f>
+        <v>21</v>
       </c>
       <c r="I31" s="1">
         <v>30</v>
       </c>
       <c r="J31" s="1">
-        <v>143</v>
+        <f>Tabella4[[#This Row],[Reti_sub]]/Tabella4[[#This Row],[Min_90]]</f>
+        <v>1.4285714285714286</v>
       </c>
       <c r="K31" s="1">
         <v>108</v>
@@ -6560,7 +6725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -6582,14 +6747,16 @@
       <c r="G32" s="1">
         <v>1105</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>91</v>
+      <c r="H32" s="1">
+        <f>Tabella4[[#This Row],[Min_giocati]]/90</f>
+        <v>12.277777777777779</v>
       </c>
       <c r="I32" s="1">
         <v>18</v>
       </c>
       <c r="J32" s="1">
-        <v>147</v>
+        <f>Tabella4[[#This Row],[Reti_sub]]/Tabella4[[#This Row],[Min_90]]</f>
+        <v>1.4660633484162895</v>
       </c>
       <c r="K32" s="1">
         <v>42</v>
@@ -6613,7 +6780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -6635,14 +6802,16 @@
       <c r="G33" s="1">
         <v>540</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>70</v>
+      <c r="H33" s="1">
+        <f>Tabella4[[#This Row],[Min_giocati]]/90</f>
+        <v>6</v>
       </c>
       <c r="I33" s="1">
         <v>12</v>
       </c>
       <c r="J33" s="1">
-        <v>200</v>
+        <f>Tabella4[[#This Row],[Reti_sub]]/Tabella4[[#This Row],[Min_90]]</f>
+        <v>2</v>
       </c>
       <c r="K33" s="1">
         <v>27</v>
@@ -6666,12 +6835,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="C34" t="s">
         <v>18</v>
@@ -6688,14 +6857,16 @@
       <c r="G34" s="1">
         <v>1980</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>87</v>
+      <c r="H34" s="1">
+        <f>Tabella4[[#This Row],[Min_giocati]]/90</f>
+        <v>22</v>
       </c>
       <c r="I34" s="1">
         <v>21</v>
       </c>
       <c r="J34" s="1">
-        <v>95</v>
+        <f>Tabella4[[#This Row],[Reti_sub]]/Tabella4[[#This Row],[Min_90]]</f>
+        <v>0.95454545454545459</v>
       </c>
       <c r="K34" s="1">
         <v>69</v>
@@ -6719,12 +6890,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="C35" t="s">
         <v>18</v>
@@ -6741,14 +6912,16 @@
       <c r="G35" s="1">
         <v>90</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>85</v>
+      <c r="H35" s="1">
+        <f>Tabella4[[#This Row],[Min_giocati]]/90</f>
+        <v>1</v>
       </c>
       <c r="I35" s="1">
         <v>3</v>
       </c>
       <c r="J35" s="1">
-        <v>300</v>
+        <f>Tabella4[[#This Row],[Reti_sub]]/Tabella4[[#This Row],[Min_90]]</f>
+        <v>3</v>
       </c>
       <c r="K35" s="1">
         <v>6</v>
@@ -6772,7 +6945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -6794,14 +6967,16 @@
       <c r="G36" s="1">
         <v>423</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>94</v>
+      <c r="H36" s="1">
+        <f>Tabella4[[#This Row],[Min_giocati]]/90</f>
+        <v>4.7</v>
       </c>
       <c r="I36" s="1">
         <v>9</v>
       </c>
       <c r="J36" s="1">
-        <v>191</v>
+        <f>Tabella4[[#This Row],[Reti_sub]]/Tabella4[[#This Row],[Min_90]]</f>
+        <v>1.9148936170212765</v>
       </c>
       <c r="K36" s="1">
         <v>21</v>
@@ -6824,6 +6999,21 @@
       <c r="Q36" s="1">
         <v>0</v>
       </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dataset/Portieri.xlsx
+++ b/Dataset/Portieri.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UniDispense\ICON\ICON_Project\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14794772-FD6D-4C23-BA40-E0ACC06C0D02}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F63886-F5D0-4A91-9514-33666E9DB33B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-7305" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{BDB474DA-5ACF-4EFA-B6B9-94B7B8C58F21}"/>
+    <workbookView xWindow="20370" yWindow="-7305" windowWidth="29040" windowHeight="16440" xr2:uid="{BDB474DA-5ACF-4EFA-B6B9-94B7B8C58F21}"/>
   </bookViews>
   <sheets>
-    <sheet name="26" sheetId="1" r:id="rId1"/>
-    <sheet name="27" sheetId="5" r:id="rId2"/>
-    <sheet name="28" sheetId="3" r:id="rId3"/>
+    <sheet name="g26" sheetId="1" r:id="rId1"/>
+    <sheet name="g27" sheetId="5" r:id="rId2"/>
+    <sheet name="g28" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="DatiEsterni_1" localSheetId="1" hidden="1">'27'!$A$1:$Q$36</definedName>
+    <definedName name="DatiEsterni_1" localSheetId="1" hidden="1">'g27'!$A$1:$Q$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -76,9 +76,6 @@
     <t>Partite_giocate</t>
   </si>
   <si>
-    <t>Titolare</t>
-  </si>
-  <si>
     <t>Min_giocati</t>
   </si>
   <si>
@@ -278,6 +275,9 @@
   </si>
   <si>
     <t>Ciprian Tătărușanu\Ciprian-Tatarusanu</t>
+  </si>
+  <si>
+    <t>PG_titolare</t>
   </si>
 </sst>
 </file>
@@ -531,7 +531,7 @@
     <tableColumn id="4" xr3:uid="{C34145F9-2FF8-41E6-9F23-93F9A7AFD2F1}" name="Ruolo" dataDxfId="43"/>
     <tableColumn id="5" xr3:uid="{0CE5B215-04EC-4C67-8971-EB5439805B0F}" name="Squadra" dataDxfId="42"/>
     <tableColumn id="8" xr3:uid="{F01B15DF-2DF9-47CC-B8FC-5036F18FE682}" name="Partite_giocate" dataDxfId="41"/>
-    <tableColumn id="9" xr3:uid="{5D2D9D87-6B87-411A-A409-6566CB9F5C17}" name="Titolare" dataDxfId="40"/>
+    <tableColumn id="9" xr3:uid="{5D2D9D87-6B87-411A-A409-6566CB9F5C17}" name="PG_titolare" dataDxfId="40"/>
     <tableColumn id="10" xr3:uid="{5916E863-847F-41AB-AE92-1745EA1C1C06}" name="Min_giocati" dataDxfId="39"/>
     <tableColumn id="11" xr3:uid="{82BFCAA2-2D17-4050-BAF7-6E810A6CEC43}" name="Min_90" dataDxfId="38"/>
     <tableColumn id="12" xr3:uid="{5F0D13B6-21D8-4A23-91FC-D3B4B69AF5BA}" name="Reti_sub" dataDxfId="37"/>
@@ -575,7 +575,7 @@
     <tableColumn id="3" xr3:uid="{FD9F4197-0708-4C30-A18E-C4254C04A92B}" uniqueName="3" name="Ruolo" queryTableFieldId="3" dataDxfId="27"/>
     <tableColumn id="4" xr3:uid="{91F42C2F-6FE9-46FD-9E0D-A10F37B6E7EB}" uniqueName="4" name="Squadra" queryTableFieldId="4" dataDxfId="26"/>
     <tableColumn id="5" xr3:uid="{119E7E32-7B23-4575-984D-2691364792B4}" uniqueName="5" name="Partite_giocate" queryTableFieldId="5" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{24DC5E5B-196B-4181-8B14-2B65BA039C7C}" uniqueName="6" name="Titolare" queryTableFieldId="6" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{24DC5E5B-196B-4181-8B14-2B65BA039C7C}" uniqueName="6" name="PG_titolare" queryTableFieldId="6" dataDxfId="24"/>
     <tableColumn id="7" xr3:uid="{9CA7A86C-0D22-4FDB-B489-BA3F349E3054}" uniqueName="7" name="Min_giocati" queryTableFieldId="7" dataDxfId="23"/>
     <tableColumn id="8" xr3:uid="{5BAA6B3B-DB85-4AA2-8BD7-C7933A9BDC48}" uniqueName="8" name="Min_90" queryTableFieldId="8" dataDxfId="22"/>
     <tableColumn id="9" xr3:uid="{C116BB72-6EA7-4A5B-8409-C62249EAD314}" uniqueName="9" name="Reti_sub" queryTableFieldId="9" dataDxfId="21"/>
@@ -622,7 +622,7 @@
     <tableColumn id="4" xr3:uid="{5539A54E-D114-4FEC-B0C8-0B91FCF131DE}" name="Ruolo"/>
     <tableColumn id="5" xr3:uid="{2E9C44B0-81BD-4E4A-8C02-B999BC4AFAA1}" name="Squadra"/>
     <tableColumn id="8" xr3:uid="{7EF233F5-6EAA-4E6E-8132-DD9DC1E52BB1}" name="Partite_giocate" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{07AFAD2E-306C-4DCB-B1D5-E2ECEDA7D9A7}" name="Titolare" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{07AFAD2E-306C-4DCB-B1D5-E2ECEDA7D9A7}" name="PG_titolare" dataDxfId="11"/>
     <tableColumn id="10" xr3:uid="{21EF4890-E030-4AAB-B898-323F6919628E}" name="Min_giocati" dataDxfId="10"/>
     <tableColumn id="11" xr3:uid="{407FFFE3-2924-4F64-A9B4-CADD8D5151FD}" name="Min_90" dataDxfId="9">
       <calculatedColumnFormula>Tabella4[[#This Row],[Min_giocati]]/90</calculatedColumnFormula>
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8C7C21-4A60-47BC-8E1D-1861227561BB}">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,7 +951,7 @@
     <col min="3" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
     <col min="8" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
@@ -982,40 +982,40 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -1023,16 +1023,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="1">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -1079,16 +1079,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="1">
         <v>5.0199999999999996</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" s="1">
         <v>26</v>
@@ -1135,16 +1135,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="1">
         <v>5.8</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1">
         <v>5</v>
@@ -1191,16 +1191,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="1">
         <v>4.6900000000000004</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" s="1">
         <v>24</v>
@@ -1247,16 +1247,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="1">
         <v>3.73</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="1">
         <v>26</v>
@@ -1303,16 +1303,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="1">
         <v>3.75</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1">
         <v>6</v>
@@ -1359,16 +1359,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1">
         <v>4.71</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" s="1">
         <v>26</v>
@@ -1415,16 +1415,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="1">
         <v>5.3</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="1">
         <v>25</v>
@@ -1471,16 +1471,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="1">
         <v>4.8499999999999996</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" s="1">
         <v>26</v>
@@ -1527,16 +1527,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="1">
         <v>5.6</v>
       </c>
       <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
         <v>18</v>
-      </c>
-      <c r="E11" t="s">
-        <v>19</v>
       </c>
       <c r="F11" s="1">
         <v>15</v>
@@ -1583,16 +1583,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" s="1">
         <v>5.27</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" s="1">
         <v>26</v>
@@ -1639,16 +1639,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" s="1">
         <v>4.84</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13" s="1">
         <v>16</v>
@@ -1695,16 +1695,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="1">
         <v>3.5</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F14" s="1">
         <v>3</v>
@@ -1751,16 +1751,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="1">
         <v>4.75</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F15" s="1">
         <v>12</v>
@@ -1807,16 +1807,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" s="1">
         <v>3.75</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F16" s="1">
         <v>2</v>
@@ -1863,16 +1863,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="1">
         <v>4.82</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F17" s="1">
         <v>11</v>
@@ -1919,16 +1919,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C18" s="1">
         <v>4.0199999999999996</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F18" s="1">
         <v>26</v>
@@ -1975,16 +1975,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" s="1">
         <v>4.92</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F19" s="1">
         <v>24</v>
@@ -2031,16 +2031,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="1">
         <v>5.15</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F20" s="1">
         <v>13</v>
@@ -2087,16 +2087,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" s="1">
         <v>4.75</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F21" s="1">
         <v>2</v>
@@ -2143,16 +2143,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="1">
         <v>6.5</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
@@ -2199,16 +2199,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" s="1">
         <v>4.95</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F23" s="1">
         <v>22</v>
@@ -2255,16 +2255,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" s="1">
         <v>4.43</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F24" s="1">
         <v>22</v>
@@ -2311,16 +2311,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" s="1">
         <v>5.75</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F25" s="1">
         <v>2</v>
@@ -2367,16 +2367,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F26" s="1">
         <v>1</v>
@@ -2423,16 +2423,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="1">
         <v>4.92</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F27" s="1">
         <v>19</v>
@@ -2479,16 +2479,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" s="1">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F28" s="1">
         <v>26</v>
@@ -2535,16 +2535,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C29" s="1">
         <v>5.0199999999999996</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F29" s="1">
         <v>26</v>
@@ -2591,16 +2591,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" s="1">
         <v>4.07</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F30" s="1">
         <v>22</v>
@@ -2647,16 +2647,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C31" s="1">
         <v>5.1100000000000003</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F31" s="1">
         <v>19</v>
@@ -2703,16 +2703,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" s="1">
         <v>5.08</v>
       </c>
       <c r="D32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" t="s">
         <v>18</v>
-      </c>
-      <c r="E32" t="s">
-        <v>19</v>
       </c>
       <c r="F32" s="1">
         <v>12</v>
@@ -2759,16 +2759,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33" s="1">
         <v>3.75</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F33" s="1">
         <v>6</v>
@@ -2815,16 +2815,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C34" s="1">
         <v>5.5</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F34" s="1">
         <v>20</v>
@@ -2871,16 +2871,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C35" s="1">
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F35" s="1">
         <v>1</v>
@@ -2927,16 +2927,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" s="1">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F36" s="1">
         <v>3</v>
@@ -2991,7 +2991,7 @@
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3032,40 +3032,40 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -3073,13 +3073,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" s="1">
         <v>2</v>
@@ -3128,13 +3128,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="1">
         <v>27</v>
@@ -3183,13 +3183,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1">
         <v>5</v>
@@ -3238,13 +3238,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="1">
         <v>26</v>
@@ -3293,13 +3293,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="1">
         <v>27</v>
@@ -3348,13 +3348,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1">
         <v>6</v>
@@ -3403,13 +3403,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1">
         <v>27</v>
@@ -3458,13 +3458,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="1">
         <v>26</v>
@@ -3513,13 +3513,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="1">
         <v>27</v>
@@ -3568,13 +3568,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="E11" s="1">
         <v>15</v>
@@ -3623,13 +3623,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" s="1">
         <v>27</v>
@@ -3678,13 +3678,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" s="1">
         <v>17</v>
@@ -3733,13 +3733,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" s="1">
         <v>3</v>
@@ -3788,13 +3788,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="1">
         <v>12</v>
@@ -3843,13 +3843,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
@@ -3898,13 +3898,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17" s="1">
         <v>11</v>
@@ -3953,13 +3953,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18" s="1">
         <v>27</v>
@@ -4008,13 +4008,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E19" s="1">
         <v>25</v>
@@ -4063,13 +4063,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" s="1">
         <v>14</v>
@@ -4118,13 +4118,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21" s="1">
         <v>2</v>
@@ -4173,13 +4173,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -4228,13 +4228,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23" s="1">
         <v>23</v>
@@ -4283,13 +4283,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E24" s="1">
         <v>22</v>
@@ -4338,13 +4338,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E25" s="1">
         <v>2</v>
@@ -4393,13 +4393,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -4448,13 +4448,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E27" s="1">
         <v>20</v>
@@ -4503,13 +4503,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E28" s="1">
         <v>27</v>
@@ -4558,13 +4558,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E29" s="1">
         <v>27</v>
@@ -4613,13 +4613,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E30" s="1">
         <v>24</v>
@@ -4668,13 +4668,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E31" s="1">
         <v>20</v>
@@ -4723,13 +4723,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="E32" s="1">
         <v>13</v>
@@ -4778,13 +4778,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E33" s="1">
         <v>6</v>
@@ -4833,13 +4833,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E34" s="1">
         <v>21</v>
@@ -4888,13 +4888,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
@@ -4943,13 +4943,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E36" s="1">
         <v>4</v>
@@ -5005,8 +5005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD9AF3D-A8A0-4498-8033-F3AB2CF04395}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5015,6 +5015,7 @@
     <col min="4" max="4" width="9.85546875" customWidth="1"/>
     <col min="5" max="5" width="14.140625" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" customWidth="1"/>
     <col min="13" max="13" width="15.28515625" customWidth="1"/>
     <col min="15" max="15" width="13.42578125" customWidth="1"/>
@@ -5039,40 +5040,40 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -5080,13 +5081,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" s="1">
         <v>2</v>
@@ -5135,13 +5136,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="1">
         <v>28</v>
@@ -5190,13 +5191,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1">
         <v>5</v>
@@ -5245,13 +5246,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="1">
         <v>26</v>
@@ -5300,13 +5301,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="1">
         <v>28</v>
@@ -5355,13 +5356,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1">
         <v>6</v>
@@ -5410,13 +5411,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1">
         <v>28</v>
@@ -5465,13 +5466,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="1">
         <v>27</v>
@@ -5520,13 +5521,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="1">
         <v>28</v>
@@ -5575,13 +5576,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
         <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
       </c>
       <c r="E11" s="1">
         <v>16</v>
@@ -5630,13 +5631,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" s="1">
         <v>27</v>
@@ -5685,13 +5686,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" s="1">
         <v>18</v>
@@ -5740,13 +5741,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" s="1">
         <v>3</v>
@@ -5795,13 +5796,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="1">
         <v>12</v>
@@ -5850,13 +5851,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
@@ -5905,13 +5906,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17" s="1">
         <v>11</v>
@@ -5960,13 +5961,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18" s="1">
         <v>28</v>
@@ -6015,13 +6016,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E19" s="1">
         <v>26</v>
@@ -6070,13 +6071,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" s="1">
         <v>15</v>
@@ -6125,13 +6126,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21" s="1">
         <v>2</v>
@@ -6180,13 +6181,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -6235,13 +6236,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23" s="1">
         <v>24</v>
@@ -6290,13 +6291,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E24" s="1">
         <v>22</v>
@@ -6345,13 +6346,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E25" s="1">
         <v>2</v>
@@ -6400,13 +6401,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -6455,13 +6456,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E27" s="1">
         <v>21</v>
@@ -6510,13 +6511,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E28" s="1">
         <v>28</v>
@@ -6565,13 +6566,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E29" s="1">
         <v>28</v>
@@ -6620,13 +6621,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E30" s="1">
         <v>25</v>
@@ -6675,13 +6676,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E31" s="1">
         <v>21</v>
@@ -6730,13 +6731,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" t="s">
         <v>18</v>
-      </c>
-      <c r="D32" t="s">
-        <v>19</v>
       </c>
       <c r="E32" s="1">
         <v>13</v>
@@ -6785,13 +6786,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E33" s="1">
         <v>6</v>
@@ -6840,13 +6841,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E34" s="1">
         <v>22</v>
@@ -6895,13 +6896,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
@@ -6950,13 +6951,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E36" s="1">
         <v>5</v>
@@ -7017,8 +7018,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Dataset/Portieri.xlsx
+++ b/Dataset/Portieri.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UniDispense\ICON\ICON_Project\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F63886-F5D0-4A91-9514-33666E9DB33B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D292ADD-02FA-4656-A517-BE74061AEFAE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-7305" windowWidth="29040" windowHeight="16440" xr2:uid="{BDB474DA-5ACF-4EFA-B6B9-94B7B8C58F21}"/>
+    <workbookView xWindow="20370" yWindow="-7305" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{BDB474DA-5ACF-4EFA-B6B9-94B7B8C58F21}"/>
   </bookViews>
   <sheets>
     <sheet name="g26" sheetId="1" r:id="rId1"/>
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8C7C21-4A60-47BC-8E1D-1861227561BB}">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5005,8 +5005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD9AF3D-A8A0-4498-8033-F3AB2CF04395}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Dataset/Portieri.xlsx
+++ b/Dataset/Portieri.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UniDispense\ICON\ICON_Project\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D292ADD-02FA-4656-A517-BE74061AEFAE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DA74A6-5BFA-4639-AB8D-D2554F3ECD85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-7305" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{BDB474DA-5ACF-4EFA-B6B9-94B7B8C58F21}"/>
+    <workbookView xWindow="27195" yWindow="-7185" windowWidth="17850" windowHeight="14085" activeTab="2" xr2:uid="{BDB474DA-5ACF-4EFA-B6B9-94B7B8C58F21}"/>
   </bookViews>
   <sheets>
-    <sheet name="g26" sheetId="1" r:id="rId1"/>
-    <sheet name="g27" sheetId="5" r:id="rId2"/>
-    <sheet name="g28" sheetId="3" r:id="rId3"/>
+    <sheet name="26" sheetId="1" r:id="rId1"/>
+    <sheet name="27" sheetId="5" r:id="rId2"/>
+    <sheet name="28" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="DatiEsterni_1" localSheetId="1" hidden="1">'g27'!$A$1:$Q$36</definedName>
+    <definedName name="DatiEsterni_1" localSheetId="1" hidden="1">'27'!$A$1:$Q$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
